--- a/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/next db table stuff 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/next db table stuff 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80078C9A-5ECE-4A4A-A9AD-BCC14F6A75E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC253BE-38A0-5443-AFFE-C47D3CC16350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{A42B39F3-E3D9-AF44-A25F-37E3CC8EFA25}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>we will create a page where we can enter a keyword</t>
   </si>
@@ -48,13 +48,64 @@
   </si>
   <si>
     <t>marked_grunge_id</t>
+  </si>
+  <si>
+    <t>kw_slot_1</t>
+  </si>
+  <si>
+    <t>kwslot1</t>
+  </si>
+  <si>
+    <t>kwslot2</t>
+  </si>
+  <si>
+    <t>kwslot3</t>
+  </si>
+  <si>
+    <t>kwslot4</t>
+  </si>
+  <si>
+    <t>kwslot5</t>
+  </si>
+  <si>
+    <t>kwslot6</t>
+  </si>
+  <si>
+    <t>kwslot7</t>
+  </si>
+  <si>
+    <t>kwslot8</t>
+  </si>
+  <si>
+    <t>kwslot9</t>
+  </si>
+  <si>
+    <t>kwslot10</t>
+  </si>
+  <si>
+    <t>please use our existing db connection to supabase to do the following:</t>
+  </si>
+  <si>
+    <t>create these new db columns in existing db table</t>
+  </si>
+  <si>
+    <t>cncglub</t>
+  </si>
+  <si>
+    <t>these are all foreign key fields that reference keywordshub.keyword_id</t>
+  </si>
+  <si>
+    <t>only perform this one simple thing</t>
+  </si>
+  <si>
+    <t>do not mess with our frontend ui yet. We will do that in future prompts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -69,8 +120,15 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -80,6 +138,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -96,10 +160,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,11 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042DF332-347F-3541-A937-3E3B90D3B573}">
-  <dimension ref="E1:E17"/>
+  <dimension ref="E1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,6 +533,143 @@
         <v>3</v>
       </c>
     </row>
+    <row r="22" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/next db table stuff 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/next db table stuff 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC253BE-38A0-5443-AFFE-C47D3CC16350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864B8D14-18F3-784E-B310-BAC8EACB9F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{A42B39F3-E3D9-AF44-A25F-37E3CC8EFA25}"/>
   </bookViews>
@@ -503,7 +503,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
+      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/next db table stuff 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/next db table stuff 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864B8D14-18F3-784E-B310-BAC8EACB9F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE271131-C307-D142-85DA-FCA9525C052E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{A42B39F3-E3D9-AF44-A25F-37E3CC8EFA25}"/>
   </bookViews>
@@ -502,8 +502,8 @@
   <dimension ref="E1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/next db table stuff 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/next db table stuff 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE271131-C307-D142-85DA-FCA9525C052E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A85385-B061-7C43-BD9D-7F7CC0CC756F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{A42B39F3-E3D9-AF44-A25F-37E3CC8EFA25}"/>
   </bookViews>
@@ -502,8 +502,8 @@
   <dimension ref="E1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/next db table stuff 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/next db table stuff 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A85385-B061-7C43-BD9D-7F7CC0CC756F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8C0F38-8D3C-D04B-B9BB-0483DF6DE08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{A42B39F3-E3D9-AF44-A25F-37E3CC8EFA25}"/>
   </bookViews>
@@ -503,7 +503,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
+      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/next db table stuff 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/next db table stuff 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8C0F38-8D3C-D04B-B9BB-0483DF6DE08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8064B45A-E130-204D-BDAF-0950726084B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{A42B39F3-E3D9-AF44-A25F-37E3CC8EFA25}"/>
   </bookViews>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>we will create a page where we can enter a keyword</t>
   </si>
@@ -99,6 +121,120 @@
   </si>
   <si>
     <t>do not mess with our frontend ui yet. We will do that in future prompts</t>
+  </si>
+  <si>
+    <t>launch_id</t>
+  </si>
+  <si>
+    <t>SERIAL</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>TIMESTAMP WITH TIME ZONE</t>
+  </si>
+  <si>
+    <t>DEFAULT NOW()</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>UUID</t>
+  </si>
+  <si>
+    <t>REFERENCES users(id)</t>
+  </si>
+  <si>
+    <t>country_selection</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>-- Row 1: "United States", "Canada", etc.</t>
+  </si>
+  <si>
+    <t>selected_industry_id</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>-- Row 2: industry dropdown selection</t>
+  </si>
+  <si>
+    <t>city_population_filter</t>
+  </si>
+  <si>
+    <t>-- Row 3: "all", "75k-325k", "under-25k", etc.</t>
+  </si>
+  <si>
+    <t>kw_style_template</t>
+  </si>
+  <si>
+    <t>-- Row 4: "deck builder (city_name) (state_code)"</t>
+  </si>
+  <si>
+    <t>selected_kwslot</t>
+  </si>
+  <si>
+    <t>-- Row 5: "kwslot1", "kwslot2", etc.</t>
+  </si>
+  <si>
+    <t>rel_dfs_location_code</t>
+  </si>
+  <si>
+    <t>-- Row 6: 2840 (default)</t>
+  </si>
+  <si>
+    <t>language_code</t>
+  </si>
+  <si>
+    <t>DEFAULT 'en'</t>
+  </si>
+  <si>
+    <t>-- Row 7: "en"</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>DEFAULT 'pending'</t>
+  </si>
+  <si>
+    <t>-- 'pending', 'running', 'completed', 'failed'</t>
+  </si>
+  <si>
+    <t>opt_city_population_filter</t>
+  </si>
+  <si>
+    <t>opt_industry_id</t>
+  </si>
+  <si>
+    <t>opt_kw_style</t>
+  </si>
+  <si>
+    <t>opt_kw_slot</t>
+  </si>
+  <si>
+    <t>opt_rel_dfs_location_code</t>
+  </si>
+  <si>
+    <t>opt_language_code</t>
+  </si>
+  <si>
+    <t>opt_country</t>
+  </si>
+  <si>
+    <t>keywordshub_tag</t>
+  </si>
+  <si>
+    <t>keywordshub_tags.tag_id</t>
   </si>
 </sst>
 </file>
@@ -499,11 +635,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042DF332-347F-3541-A937-3E3B90D3B573}">
-  <dimension ref="E1:E65"/>
+  <dimension ref="B1:H109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -670,7 +806,183 @@
         <v>20</v>
       </c>
     </row>
+    <row r="75" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83" t="s">
+        <v>21</v>
+      </c>
+      <c r="F83" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83" t="s">
+        <v>23</v>
+      </c>
+      <c r="H83" t="e" cm="1">
+        <f t="array" ref="H83">-- Core fields</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" t="s">
+        <v>24</v>
+      </c>
+      <c r="F84" t="s">
+        <v>25</v>
+      </c>
+      <c r="G84" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>27</v>
+      </c>
+      <c r="E85" t="s">
+        <v>27</v>
+      </c>
+      <c r="F85" t="s">
+        <v>28</v>
+      </c>
+      <c r="G85" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>56</v>
+      </c>
+      <c r="E87" t="s">
+        <v>30</v>
+      </c>
+      <c r="F87" t="s">
+        <v>31</v>
+      </c>
+      <c r="H87" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>51</v>
+      </c>
+      <c r="E88" t="s">
+        <v>33</v>
+      </c>
+      <c r="F88" t="s">
+        <v>34</v>
+      </c>
+      <c r="H88" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>50</v>
+      </c>
+      <c r="E89" t="s">
+        <v>36</v>
+      </c>
+      <c r="F89" t="s">
+        <v>31</v>
+      </c>
+      <c r="H89" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>52</v>
+      </c>
+      <c r="E90" t="s">
+        <v>38</v>
+      </c>
+      <c r="F90" t="s">
+        <v>31</v>
+      </c>
+      <c r="H90" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>53</v>
+      </c>
+      <c r="E91" t="s">
+        <v>40</v>
+      </c>
+      <c r="F91" t="s">
+        <v>31</v>
+      </c>
+      <c r="H91" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>54</v>
+      </c>
+      <c r="E92" t="s">
+        <v>42</v>
+      </c>
+      <c r="F92" t="s">
+        <v>34</v>
+      </c>
+      <c r="H92" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>55</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>31</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>47</v>
+      </c>
+      <c r="E95" t="s">
+        <v>47</v>
+      </c>
+      <c r="F95" t="s">
+        <v>31</v>
+      </c>
+      <c r="G95" t="s">
+        <v>48</v>
+      </c>
+      <c r="H95" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E105" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="109" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E109" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/next db table stuff 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/next db table stuff 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8064B45A-E130-204D-BDAF-0950726084B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42B1120-6CD2-B141-B34B-39087AEAEA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{A42B39F3-E3D9-AF44-A25F-37E3CC8EFA25}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
   <si>
     <t>we will create a page where we can enter a keyword</t>
   </si>
@@ -231,10 +231,37 @@
     <t>opt_country</t>
   </si>
   <si>
-    <t>keywordshub_tag</t>
-  </si>
-  <si>
     <t>keywordshub_tags.tag_id</t>
+  </si>
+  <si>
+    <t>foreign key to</t>
+  </si>
+  <si>
+    <t>rel_keywordshub_tag_id</t>
+  </si>
+  <si>
+    <t>please create sql that i can run in supabase to do the following</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in db table </t>
+  </si>
+  <si>
+    <t>fabrication_launches</t>
+  </si>
+  <si>
+    <t>create new db column named</t>
+  </si>
+  <si>
+    <t>———————————————————————</t>
+  </si>
+  <si>
+    <t>then pleaes create a new ui column on /fabric page at tab 2 in the ui table</t>
+  </si>
+  <si>
+    <t>place this ui column to immediate right of column "launch_id	"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this new ui column will hold the actual integer itself and display it in the ui </t>
   </si>
 </sst>
 </file>
@@ -635,11 +662,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042DF332-347F-3541-A937-3E3B90D3B573}">
-  <dimension ref="B1:H109"/>
+  <dimension ref="B1:H114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E112" sqref="E112"/>
+      <selection pane="bottomLeft" activeCell="E101" sqref="E101:E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -971,14 +998,60 @@
         <v>49</v>
       </c>
     </row>
+    <row r="98" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E101" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E103" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="104" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E104" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="105" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E105" t="s">
-        <v>57</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="106" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E106" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="108" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E108" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="109" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E109" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="111" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E111" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="112" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E112" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="113" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E113" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="114" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E114" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
